--- a/data/trans_dic/iP30B3_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B3_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,76; 99,13</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>96,53; 99,44</t>
+          <t>92,94; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>96,82; 99,01</t>
+          <t>95,66; 100</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>98,19%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>94,64; 98,81</t>
+          <t>95,76; 99,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>97,27; 99,7</t>
+          <t>96,53; 99,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,67; 99,14</t>
+          <t>96,82; 99,01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>97,74%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,85%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,47; 100</t>
+          <t>94,26; 99,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,94; 100</t>
+          <t>99,14; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,66; 100</t>
+          <t>97,02; 99,64</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>98,17%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,26; 99,48</t>
+          <t>94,64; 98,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>99,14; 100</t>
+          <t>97,27; 99,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,02; 99,64</t>
+          <t>96,67; 99,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B3_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B3_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,58; 99,14</t>
+          <t>86,38; 99,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,55; 99,37</t>
+          <t>94,03; 99,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,61; 98,52</t>
+          <t>91,31; 98,71</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>95,76; 99,13</t>
+          <t>95,88; 99,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96,53; 99,44</t>
+          <t>96,44; 99,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,82; 99,01</t>
+          <t>96,74; 99,05</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,26; 99,48</t>
+          <t>93,24; 99,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,02; 99,64</t>
+          <t>96,75; 99,64</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,64; 98,81</t>
+          <t>94,42; 98,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>97,27; 99,7</t>
+          <t>97,05; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>96,67; 99,14</t>
+          <t>96,71; 99,07</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>96,1; 98,5</t>
+          <t>95,88; 98,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,48</t>
+          <t>98,1; 99,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97,18; 98,74</t>
+          <t>97,3; 98,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
